--- a/earlywarning-pom/earlywarning-config/src/baf-instances/25_Inst_Predictive_Model_BIB.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/25_Inst_Predictive_Model_BIB.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'c Model_Chart_Point'!$A$2:$H$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="64">
   <si>
     <t>Model</t>
   </si>
@@ -195,9 +195,6 @@
     <t>CREATE/MODIFY</t>
   </si>
   <si>
-    <t>Production</t>
-  </si>
-  <si>
     <t>ModelColumnName</t>
   </si>
   <si>
@@ -241,13 +238,64 @@
   </si>
   <si>
     <t>CUSTOMER_ANALYSIS_UNIT_BIB</t>
+  </si>
+  <si>
+    <t>Predictive_Model</t>
+  </si>
+  <si>
+    <t>MaxValue</t>
+  </si>
+  <si>
+    <t>MinValue</t>
+  </si>
+  <si>
+    <t>SchedulationStatus</t>
+  </si>
+  <si>
+    <t>Topology</t>
+  </si>
+  <si>
+    <t>VisualModelingStatus</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>SparkJarFile</t>
+  </si>
+  <si>
+    <t>SparkCodeFile</t>
+  </si>
+  <si>
+    <t>R-MOD_BIB_CORPORATE_1-WS_BIB_CORPORATE</t>
+  </si>
+  <si>
+    <t>REL-WS_BIB_CORPORATE</t>
+  </si>
+  <si>
+    <t>WS_BIB_CORPORATE</t>
+  </si>
+  <si>
+    <t>R-MOD_BIB_CORPORATE_2-WS_BIB_CORPORATE</t>
+  </si>
+  <si>
+    <t>R-MOD_BIB_RETAIL_1-WS_BIB_RETAIL</t>
+  </si>
+  <si>
+    <t>REL-WS_BIB_RETAIL</t>
+  </si>
+  <si>
+    <t>WS_BIB_RETAIL</t>
+  </si>
+  <si>
+    <t>R-MOD_BIB_RETAIL_2-WS_BIB_RETAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -289,11 +337,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Trebuchet MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Trebuchet MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -321,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -336,7 +395,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4505,10 +4567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4518,134 +4580,174 @@
     <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="F2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4729,10 +4831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="A3" sqref="A3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4772,6 +4874,74 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
